--- a/アルゴリズムとデータ構造.xlsx
+++ b/アルゴリズムとデータ構造.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowakimizuto/Documents/GitHub_repository/AlgoritAlgorithms-and-Data-Structures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A01C1CD-05AF-CD43-9850-66984CEF17AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263D8442-AA3D-3245-87E5-A4FF608DCD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4D1646A8-D7C7-2E47-B862-46FCD7BBA4FC}"/>
   </bookViews>
@@ -4531,6 +4531,645 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Julia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sec.02!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>code_0201</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sec.02!$A$55:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sec.02!$B$55:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9200000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5776999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0796999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84487100000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1899569999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.250108999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA43-8B49-B6DB-16AE62D57B67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sec.02!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>code_0202</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sec.02!$A$55:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sec.02!$C$55:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.76E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5489999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9753990000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>886.17165699999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA43-8B49-B6DB-16AE62D57B67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="472675712"/>
+        <c:axId val="472579504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="472675712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472579504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="472579504"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(time)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472675712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4811,6 +5450,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7908,6 +8587,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8677,6 +9872,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9DFF2F-6B18-4947-BDCC-D30DEEF5EB27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8979,8 +10210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7657906-4E32-8847-A504-190979067A4C}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/アルゴリズムとデータ構造.xlsx
+++ b/アルゴリズムとデータ構造.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowakimizuto/Documents/GitHub_repository/AlgoritAlgorithms-and-Data-Structures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowakimizuto/Documents/GitHub_repository/Algorithms-and-Data-Structures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263D8442-AA3D-3245-87E5-A4FF608DCD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CF7B76-5AEE-B24D-A653-A54BB440F2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4D1646A8-D7C7-2E47-B862-46FCD7BBA4FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{4D1646A8-D7C7-2E47-B862-46FCD7BBA4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="sec.02" sheetId="1" r:id="rId1"/>
+    <sheet name="practice04" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>N</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +95,12 @@
   </si>
   <si>
     <t>code_0202</t>
+  </si>
+  <si>
+    <t>code_0401</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -5170,6 +5177,328 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>practice04!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>practice04!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>practice04!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B20-734B-A2A3-8AA4D925AAA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="419839936"/>
+        <c:axId val="878603424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="419839936"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="878603424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="878603424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419839936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5490,6 +5819,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9103,6 +9472,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9911,6 +10796,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682993F2-28DB-FF40-8075-22D738F410FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10210,7 +11136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7657906-4E32-8847-A504-190979067A4C}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
@@ -11006,4 +11932,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDFFB29-E7C0-DB43-BBDF-C5E0371FE19E}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/アルゴリズムとデータ構造.xlsx
+++ b/アルゴリズムとデータ構造.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowakimizuto/Documents/GitHub_repository/Algorithms-and-Data-Structures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CF7B76-5AEE-B24D-A653-A54BB440F2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE47EC5-83EB-F44E-92C5-7D261F347597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{4D1646A8-D7C7-2E47-B862-46FCD7BBA4FC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>N</t>
     <phoneticPr fontId="1"/>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>code_0402</t>
   </si>
 </sst>
 </file>
@@ -763,6 +766,347 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>practice04!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>practice04!$A$19:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>practice04!$B$19:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>5.4100000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>5.7819999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BE6-E64B-9766-2D5F6326196F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="860855168"/>
+        <c:axId val="433144688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="860855168"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433144688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="433144688"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860855168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5299,8 +5643,14 @@
             <c:numRef>
               <c:f>practice04!$B$3:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5388,6 +5738,7 @@
       <c:valAx>
         <c:axId val="878603424"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5406,7 +5757,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5500,6 +5851,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6375,6 +6766,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10800,16 +11707,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10829,6 +11736,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DC0D8A-9A45-F348-B490-7B7930BC136A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11936,10 +12879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDFFB29-E7C0-DB43-BBDF-C5E0371FE19E}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11961,11 +12904,17 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
+      <c r="B4" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -11989,6 +12938,72 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10000</v>
+      </c>
+      <c r="B23">
+        <v>5.4100000000000003E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>100000</v>
+      </c>
+      <c r="B24">
+        <v>5.7819999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>1000000</v>
       </c>
     </row>

--- a/アルゴリズムとデータ構造.xlsx
+++ b/アルゴリズムとデータ構造.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowakimizuto/Documents/GitHub_repository/Algorithms-and-Data-Structures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE47EC5-83EB-F44E-92C5-7D261F347597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9AC43-8DF8-AB4D-84CE-D065FC83A8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{4D1646A8-D7C7-2E47-B862-46FCD7BBA4FC}"/>
   </bookViews>
@@ -16,6 +16,12 @@
     <sheet name="sec.02" sheetId="1" r:id="rId1"/>
     <sheet name="practice04" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">practice04!$A$36</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">practice04!$A$37:$A$39</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">practice04!$B$36</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">practice04!$B$37:$B$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>N</t>
     <phoneticPr fontId="1"/>
@@ -104,6 +110,9 @@
   </si>
   <si>
     <t>code_0402</t>
+  </si>
+  <si>
+    <t>code_0404</t>
   </si>
 </sst>
 </file>
@@ -1096,6 +1105,321 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="860855168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>practice04!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>practice04!$A$37:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>practice04!$B$37:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>2.4000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9599999999999996E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7A5-0640-A93C-CB521564B7F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="34848672"/>
+        <c:axId val="34850320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="34848672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34850320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="34850320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34848672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5930,6 +6254,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6767,6 +7131,522 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11777,6 +12657,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0925EBFB-2582-6F44-BB07-BDB5BD94AAB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12879,10 +13795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDFFB29-E7C0-DB43-BBDF-C5E0371FE19E}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13007,6 +13923,40 @@
         <v>1000000</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.4000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>5.9599999999999996E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/アルゴリズムとデータ構造.xlsx
+++ b/アルゴリズムとデータ構造.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadowakimizuto/Documents/GitHub_repository/Algorithms-and-Data-Structures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9AC43-8DF8-AB4D-84CE-D065FC83A8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4027B03B-BB4D-E342-B1BA-365F44871AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{4D1646A8-D7C7-2E47-B862-46FCD7BBA4FC}"/>
   </bookViews>
@@ -13798,7 +13798,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
